--- a/data/trans_camb/P23_DUKE_AC_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_AC_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-18,4</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,31</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>6,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,34</t>
+          <t>17,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,33</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>14,49</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11,2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6,37</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10,84</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-41,11; 0,49</t>
+          <t>-13,44; 22,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-30,27; 19,85</t>
+          <t>-13,77; 23,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 13,77</t>
+          <t>-12,46; 25,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 43,59</t>
+          <t>-0,21; 32,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 2,98</t>
+          <t>-12,87; 25,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 25,71</t>
+          <t>-3,52; 30,82</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 23,32</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-7,24; 19,58</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 23,36</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-51,73%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-17,74%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,19%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-27,07%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>20,11%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14,48%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8,23%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14,0%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-78,52; 7,5</t>
+          <t>-15,22; 32,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-69,59; 104,06</t>
+          <t>-15,21; 33,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-41,1; 102,23</t>
+          <t>-14,1; 38,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 290,15</t>
+          <t>1,19; 56,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,28; 16,52</t>
+          <t>-15,72; 42,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,09; 121,58</t>
+          <t>-3,89; 52,23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 34,5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-8,77; 28,5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 35,06</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>-2,19</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,8</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 14,92</t>
+          <t>-1,43; 25,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 12,0</t>
+          <t>-5,86; 20,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 4,36</t>
+          <t>-5,21; 21,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 8,04</t>
+          <t>-4,96; 9,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 7,09</t>
+          <t>-13,75; 3,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 7,67</t>
+          <t>-11,97; 5,17</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 14,83</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; 8,75</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-5,48; 10,08</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,41%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>-2,59%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7,26%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,08%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2,13%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 137,38</t>
+          <t>-1,57; 41,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 114,4</t>
+          <t>-7,29; 31,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,28; 31,65</t>
+          <t>-6,4; 34,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 58,1</t>
+          <t>-5,66; 12,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 54,34</t>
+          <t>-15,88; 4,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 59,39</t>
+          <t>-13,47; 6,48</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 19,95</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-8,7; 11,72</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 13,4</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>12,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>9,67</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>10,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>-3,98</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,78</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,47</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 8,65</t>
+          <t>0,69; 23,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 8,68</t>
+          <t>-1,85; 21,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 4,44</t>
+          <t>-2,3; 20,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 12,95</t>
+          <t>-5,3; 11,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 5,09</t>
+          <t>-9,67; 6,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 9,02</t>
+          <t>-13,3; 4,22</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 13,48</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 9,64</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 9,65</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,83%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>68,88%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>48,28%</t>
+          <t>-4,76%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8,79%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,26; 140,78</t>
+          <t>1,02; 37,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,56; 137,18</t>
+          <t>-2,52; 36,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,3; 63,73</t>
+          <t>-2,93; 34,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,46; 177,76</t>
+          <t>-6,03; 14,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,25; 69,05</t>
+          <t>-11,19; 8,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 123,2</t>
+          <t>-15,12; 5,32</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 18,54</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-5,52; 13,25</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-5,6; 13,16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 6,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 8,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 3,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 13,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 8,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,88; 55,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 69,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 25,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,08; 94,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 26,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 58,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9,76</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7,01</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8,07</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6,89</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 18,39</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 15,13</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 16,68</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 10,6</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-7,44; 4,03</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 5,19</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 11,54</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 7,52</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 8,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>13,27%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>9,53%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>10,97%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-2,11%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-0,73%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>8,78%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>4,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 26,81</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 22,93</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 24,62</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 13,3</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-8,68; 4,96</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-7,08; 6,61</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 15,3</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 10,06</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 11,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
